--- a/admintool/bodydonation.xlsx
+++ b/admintool/bodydonation.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
